--- a/23 - Matrizes de Rastreabilidade (Características x SSS).xlsx
+++ b/23 - Matrizes de Rastreabilidade (Características x SSS).xlsx
@@ -167,10 +167,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -192,7 +196,7 @@
       <name val="Georgia"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,24 +207,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4DD0E1"/>
         <bgColor rgb="FF4DD0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0F7FA"/>
-        <bgColor rgb="FFE0F7FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,28 +368,28 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -415,40 +401,40 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -457,13 +443,13 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,13 +458,11 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD0E0E3"/>
-          <bgColor rgb="FFD0E0E3"/>
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
       <border/>
@@ -521,13 +505,8 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="2">
+  <tableStyles count="1">
     <tableStyle count="3" pivot="0" name="Página1-style">
-      <tableStyleElement dxfId="2" type="headerRow"/>
-      <tableStyleElement dxfId="3" type="firstRowStripe"/>
-      <tableStyleElement dxfId="4" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="Página1-style 2">
       <tableStyleElement dxfId="2" type="headerRow"/>
       <tableStyleElement dxfId="3" type="firstRowStripe"/>
       <tableStyleElement dxfId="4" type="secondRowStripe"/>
@@ -541,8 +520,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:X25" displayName="Table_1" id="1">
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:Z25" displayName="Table_1" id="1">
+  <tableColumns count="26">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
     <tableColumn name="Column3" id="3"/>
@@ -567,6 +546,8 @@
     <tableColumn name="Column22" id="22"/>
     <tableColumn name="Column23" id="23"/>
     <tableColumn name="Column24" id="24"/>
+    <tableColumn name="Column25" id="25"/>
+    <tableColumn name="Column26" id="26"/>
   </tableColumns>
   <tableStyleInfo name="Página1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
@@ -574,16 +555,6 @@
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
     </ext>
   </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y1:Z25" displayName="Table_2" id="2">
-  <tableColumns count="2">
-    <tableColumn name="C24" id="1"/>
-    <tableColumn name="C25" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="Página1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -951,7 +922,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -969,7 +940,7 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W4" s="10"/>
@@ -978,7 +949,7 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="9"/>
@@ -1103,7 +1074,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W8" s="10"/>
@@ -1135,7 +1106,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W9" s="10"/>
@@ -1167,7 +1138,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W10" s="10"/>
@@ -1199,7 +1170,7 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W11" s="10"/>
@@ -1228,10 +1199,10 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="15" t="s">
+      <c r="S12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="U12" s="10"/>
@@ -1297,7 +1268,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="15" t="s">
+      <c r="V14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W14" s="10"/>
@@ -1369,7 +1340,7 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="15" t="s">
+      <c r="V16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W16" s="10"/>
@@ -1465,7 +1436,7 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="15" t="s">
+      <c r="V19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W19" s="10"/>
@@ -1499,10 +1470,10 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="15" t="s">
+      <c r="V20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="15" t="s">
+      <c r="W20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="X20" s="11"/>
@@ -1527,7 +1498,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="16" t="s">
         <v>26</v>
       </c>
       <c r="Q21" s="10"/>
@@ -1600,7 +1571,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="V23" s="10"/>
@@ -1631,7 +1602,7 @@
       <c r="Q24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R24" s="15" t="s">
+      <c r="R24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="S24" s="10"/>
@@ -4530,9 +4501,8 @@
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>